--- a/src/digitalmodel/tests/test_data/aqwa/output/aqwa_raos.xlsx
+++ b/src/digitalmodel/tests/test_data/aqwa/output/aqwa_raos.xlsx
@@ -432,77 +432,77 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>(SECS)</t>
+          <t>Period (SECS)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>(RAD/S)</t>
+          <t>Frequency (RAD/S)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>(DEGREES)</t>
+          <t>Direction (DEGREES)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>Surge AMP</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PHASE</t>
+          <t>Surge PHASE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>Sway AMP</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PHASE</t>
+          <t>Sway PHASE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>Heave AMP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PHASE</t>
+          <t>Heave PHASE</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>Roll AMP</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>PHASE</t>
+          <t>Roll PHASE</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>Pitch AMP</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>PHASE</t>
+          <t>Pitch PHASE</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>Yaw AMP</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>PHASE</t>
+          <t>Yaw PHASE</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
